--- a/Phase2/InstancesV2/InstanceParisV2.xlsx
+++ b/Phase2/InstancesV2/InstanceParisV2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eccyp\Documents\administratif_CS\2A\ST7 Optimisation Transport\DecisionBrain\InstancesV2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eccyp\Documents\administratif_CS\2A\ST7 Optimisation Transport\DecisionBrain\projetST7\Phase2\InstancesV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7611701F-B607-4230-ACFD-73B47661518E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D08353E-6BB0-452A-80C6-43AC8E61FB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{745759C5-7123-8144-B92E-2C75C62BB0A9}"/>
   </bookViews>
@@ -114,10 +114,10 @@
     <t>6:00pm</t>
   </si>
   <si>
-    <t>3:00pm</t>
-  </si>
-  <si>
     <t>4:30pm</t>
+  </si>
+  <si>
+    <t>10:00am</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -626,10 +626,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -642,7 +642,7 @@
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
